--- a/NLP/Proyecto1-Turismo/opiniones_por_anio.xlsx
+++ b/NLP/Proyecto1-Turismo/opiniones_por_anio.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>the inside of this church in plaza la paz is incredible so beautiful and full of peace we attended mass in this church do not miss the chance to look at the amazing architecture and the beautiful decorations</t>
+          <t>es un sitio lleno de contrastes fuera del templo esta el bullicio y todo tipo de manifestaciones artisticas mientras que dentro hay una gran paz</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -486,7 +486,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>this is one of the larger basilica in guanajuato as well as one of the more beautiful it is right downtown and if you are walking around for any le get of time you cant miss it a must see</t>
+          <t>hermosa iglesia en vibrante amarillo y naranja bien situado en el centro de guanajuato es la mas evidente iglesia guanajuato cualquiera de los lugares turisticos que vaya pasa a traves de el linda</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -508,12 +508,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>hermosa jamas en mi vida habia visto un estado con iglesias tan bellas como guanajuato ademas que su gente es realmente fiel a sus costumbres</t>
+          <t>en una ciudad historica de las tradiciones antiguas esta basilica se alza majestuoso en una plaza cuadrada lugar de peregrinacion y culto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>junto a la iglesia se encuentra la plaza de la paz el dia que fui estaba teniendo un espectaculo de magia justo en frente de la iglesia parece ser un lugar de cultura</t>
+          <t>hablando estrictamente desde el punto de vista arquitectonico se trata de un edificio que impone por su presencia sin embargo al compararlo con otras iglesias y templos del bajio no sobresale ni aporta detalles caracteristicos o especialmente interesantes</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>lugar muy colorido y no lo puedes dejar pasar de vista construcciones hermosas sin duda un lugar icono de guanajuato</t>
+          <t>sin comentarios guanajuato tiene iglesias visitar hermosas y bellas basilicas pero es realmente muy hermosa vale la pena el viaje</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -552,12 +552,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>retablos y nave decorada candelabros al estilo barroco angeles por donde sea detalles en pinturas arte bien conservado</t>
+          <t>the strikingly beautiful basilica is just one of the marvelous sites in guanajuato it is located just down the street from the central park there are lots to see in this historic city and the basilica is one of many must see places</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>this is a location you will walk by while walking in the city every mexican city or town has a church due to the silver wealth of the city it is a basilica in the parochial style the church is filled with people during the day and it really is up to you and how you feel about visiting churches whether you want to stop inside or just observe the architecture from the exterior</t>
+          <t>es una famosa iglesia en guanajuato la noche es bella y se encienden en las inmediaciones de la universidad de guanajuato hay estudiantes japoneses ven lo que se recomienda quedarse</t>
         </is>
       </c>
     </row>
@@ -574,12 +574,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>if you are old enough to remember what shopping was like in the states before supermarket chains and giant malls you will feel right at home here bring your grandkids and show them a window into the past this converted train station is a crowded jumble of all kinds of merchandise soup to nuts and everything in between a great place to just wander and look</t>
+          <t>for those like me who enjoy seeing the local markets when they visit a central american city this an excellent one with many stalls outside of just fruits and vegetables and there are 2 floors worth in a charming old building so less cramped than your typical market</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>this market is packed tight with food clothes chotches the aisles are very narrow the customers were on their busy way from work to home</t>
+          <t>a messy collection of poor quality cheap goods alright for a quick look round and but not much else</t>
         </is>
       </c>
     </row>
@@ -596,12 +596,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>un lugar muy padre abajo tienen comida y el segundo piso hay artesania compre talavera y la construccion del inmueble es por el sr eiffel mandado desde francia por gral porfirio diaz</t>
+          <t>es un tipico mercado local lleno de vida que te invita a recorrer todos sus pasillos y puestos en busca de algo inesperado como recuerdo o algo delicioso para disfrutar enmarcado con una edificacion muy particular</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>hidalgo market is where you can enjoy local foods with reasonable prices and buy some local goods too in addition the nearby park has an extention of the market too</t>
+          <t>while the market sells crafts and souvenirs as well as food i neither bought anything or ate anything while i was there it was more about the experience and definitely worth the visit there are plenty of other great places to shop and eat outside of the market so make sure you explore your options</t>
         </is>
       </c>
     </row>
@@ -618,12 +618,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>this is a great market with lots of fresh fruits vegetables candy sweets treats etc it was a fun way to spend a hour parking was a little difficult particularly in the parking lot in the center of the market but we found free street parking a block away just across from the market</t>
+          <t>aqui hay de todo desde recuerditos y comida hasta talabarterias la comida es buena y si van temprano en el exterior hay un menudo bien buenotambien afuera estan los de los panes muy ricos y deben de probas los gusanitos son un estilo galletas muy ricas adentro puedes encontrar buena cantidad de recuerdos para llevar</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>fuimos unas cuantas veces por cosas que ocupabamos pero en realidad tiene mejor vista por fuera de lo que la tiene por dentro puedes ir para conocer y como puede que te guste puede que no aguas con la comida nada mas</t>
+          <t>this is an indoor market that has everything from clothing to raw meats on display it is interesting to take a walk through and a good place to start a walking tour through guanajuato but dont waste too much time there</t>
         </is>
       </c>
     </row>
@@ -640,12 +640,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>un lugar grande y emblematico podras encontrar desde dulces cremeria y demas cosas siempre esta lleno un lugar limpio podras comer las guacamayas que es una torta de chicharron y chile visita obligada</t>
+          <t>if you need to buy souvenirs go to this local market where you can find totally everything the prices are low and you will enjoy true mexican street market</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>camisetas esqueleto bienes de frida kahlo es probable caramelo dulce etc no es diferente de otras ciudades de mexico surtido yo no compro la motivacion que surge tan completamente que no estan interesados no se encontro cafe y chocolate mexicano que queria comprar</t>
+          <t>me gusto mas verlo como edificio fue alguna estacion de trenes y su arquitectura vale la pena hoy en su interior hay puestos de vendedores donde podras comprar artesanias y comida como espacio cultural seria genial ojala algun dia le cambien el concepto muy centrico</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>if you like mexican food it starts in a main market like the hidalgo market if you havent taken the time to visit an authentic market this is a good one the structure is interesting and in general it is one of the more predominant buildings in guanajuato personally i think the selection of souvenirs is a bit simple</t>
+          <t>my husband and i were staying in an apartment so we had to forage for food we headed down to the market and found granola and yogurt for breakfast also fresh fruits beautifully displayed and other typical mexican treats</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>el mercado segun me dijeron se encuentra dentro de lo que alguna vez fue una estacion de tren hermoso por fuera e interesante y pintoresco por dentro en la primera planta encontraras todos los puestos de comida y en la planta de arriba se encuentran artesanias y recuerdos de todos los lugares turisticos de la ciudad te recomiendo las tortas de chicarron con aguacate que vende justo frente a la entrada del mercado</t>
+          <t>es un punto turistico obligatorio pero la calidad de la comida es baja y la atencion al visitante deja mucho que desear</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>it was very interesting to see smaller drawings by diego rivera in many different styles than the murals he became famous for</t>
+          <t>bonito y pequeno museo con originales del artista cuyo lugar de nacimiento con poca gente ver alhondigada y mercado</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -702,12 +702,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>great art by dr and others can be seen here and the layout of the house is interesting good value for the admission fee</t>
+          <t>aunque no ve las grandes obras de este gran artista no es posible conocer las obras de la carrera temprana diego la casa es preciosa y el paseo por una acogedora atras en el tiempo</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>la casa es muy linda nos toco una interesante exposicion temporal de fotografia sin embargo la ambientacion y elementos para otorgar una experiencia completa al visitante me parecen pobres incorporar equipos de audio que te acompanaran durante el recorrido a manera de visita guiada seria buenisimo para identificarte mas con cada espacio de la casa</t>
+          <t>gtos streets are all over the place almost walked right by the museum no photos allowed interesting art work of diegos early dayssome rooms filled with artwork of other artists house is 3 stories walking up and down</t>
         </is>
       </c>
     </row>
@@ -724,12 +724,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>esta atraccion es interesante por ser la casa en donde nacio este artista de talla internacional pero no esperes ver muchas de sus obras recomiendo solicitar apoyo de un guia para aprovechar la visita</t>
+          <t>un hermoso museo para el gran artista que fue diego rivera las pinturas y fotografias que se exponen excelentes para mi gusto</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>no los mejores museos de la rivera pero tiene la distincion de ser la casa en la que nacio solo para los aficionados</t>
+          <t>after living in this home until a young age diego never returned here there were some of his early works his sketches and drawings and a very few oils there was no humidity or temperature controls and i feel the pain of the art work as it suffers with its ill treatment</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>this university is famous because of its beautiful architecture both outside and inside it doesnt takes you too long to take a walk and take some photos it worth</t>
+          <t>realmente quede fascinado con el edificio de la universidad esta bastante grande y desde la cima en la puerta se puede mirar la ciudad completa brinda una vista hermosa de noche</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quede verdaderamente fascinado con este lugar desde que entras sientes algo muy especial en sus instalaciones recorrer los pasillos de la universidad es una verdadera experiencia apenas ingresas a este lugar te sumerges en la vibra que emana</t>
+          <t>todo en guanajuato tiene una historia y aqui dice que solo quien llegue a ser profesionista podra llegar al final de las escaleras y tocar la puerta es un edificio hermoso que indudablemente te gustara</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>the outside of the university is really beautiful but inside it is not well kept and it is borderline ugly</t>
+          <t>una universidad de renombre en mexico situado en el centro de la ciudad de guanajuato tiene una enorme escalera donde tiene que subir muchas escaleras para llegar a ella</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>termino de construirse en el ano 1955 el edificio de arquitectura neoclasica alberga a la rectoria oficinas administrativas y varios departamentos asi como una iglesia y un museo de historia natural se encuentra ubicada a una cuadra de la basilica de nuestra senora de guanajuato</t>
+          <t>la escalera del edificio principal estaba bien atendida por la gente y en su curso hacia el edificio principal muy impresionante</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>we walked inside the university up the stairs and around the place its okay good for a couple of photos i wouldnt rank it as a must see place</t>
+          <t>impresionante exterior del monumento tomar imagenes hermosas pena una vez dentro lo que hay que decir nada porque alli como sala de conferencias asi que voy a decir no mas</t>
         </is>
       </c>
     </row>
@@ -854,12 +854,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>the university of guanajuato is a centrally located building we could not enter the building but climbing the long set of stairs offers a magnificent view</t>
+          <t>muy buen lugar para hacer fotos para los fanaticos de game of thrones no podran negar que este lugar recuerda a la septa de baelor</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>this is not really a place to visit but rather it is a place to look at while walking around and touring the city it is a colonial building with many steps and a place to sit and watch people walking by it is not a destination in itself but you will see it on any walking tour of the city</t>
+          <t>esto no quiere decir que lo que vas a ver el edificio es un buen universidad tambien hay una tienda de moda puede comprar una mercancia logotipo de la universidad no se puede evitar debido a que el soporte de la universidad me gustaria y tambien hay un producto de mas para los turistas</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>well worth the visit precolumbian displays were not our thing but the displays about the mexican revolution were very interesting wonderful wall murals</t>
+          <t>es una ciudad colonial con mucho que conocer por ejemplo la universidad el teatro juarez la alhondiga de granaditas la presa de la olla el monumento al pipila sus iglesias cristo rey de la montana sus minas sus tuneles las momiastodo esto es muy bonito</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -894,12 +894,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>i learned a lot about mexican history at this museum there are about eight to ten pages in english that you can ask to borrow when you enter they take you through each room and describe what youre viewing even if mexican history doesnt interest you the murals make this museum worthwhile theyre in the stairwells and are incredibly beautiful there is also a bit of archeology in the upstairs rooms that is interesting and several rooms with paintings and photographs that i enjoyed quite a lot</t>
+          <t>loved the building itself the mural the displays on the 2nd floor loved it all but i wouldve gotten so much more of mexican historyif just a bit was in english a great wander around though</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>el edificio es bonito y cuando fui habia exposiciones de la epoca prehispanica la independencia y una de fotografia en la exposicion solo se explica que funciono como fortaleza pero no hay explicacion de su funcionamiento como carcel tal vez vale mas la pena cuando vas con un guia</t>
+          <t>pues fuimos a recorrer la famosa alhondiga pero no ofrecio mucho ya que no tenia nada de exposiciones o algo que le anadiera mas interes de lo que ya tiene solo el tema historico y pues para tomar fotos me hubiera gustado ver algo mas alla de lo que en cualquier libro del tema puedo encontrar lo que si es desagradable es la romeria que esta puesta casi permanentemente dada la naturaleza historica del edificio es algo que no es agradable</t>
         </is>
       </c>
     </row>
@@ -916,12 +916,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>es un lugar magico ya que es parte de la historia de mexico te muestra partes que no conocia de la independencia</t>
+          <t>el museo alhondiga de granaditas es un punto obligado a visitar en guanajuato la entrada cuesta 60 pesos 20 pesos por el uso de camara fotografica es caro pero vale la pena pues el edificio es muy bonito por dentro ademas de que muestra la historia de guanajuato y de la independencia de mexico</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>que pena que en nuestro pais los dias festivos en los establecimientos publicos esten cerrados como es posible que sabiendo que los turistas son los dias que tenemos para visitar museos y otros monumentos esten cerrados viva mexico</t>
+          <t>es un edificio que cubre una manzana y esta totalmente restaurado tiene varias salas con diferentes muestras de historia desde los primeros habitantes de la zona hasta casi nuestros dias no recomendaria pagar la entrada de 52 para visitarlo</t>
         </is>
       </c>
     </row>
@@ -938,12 +938,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>we know so little about mexican history and the alhondiga is a great place to learn about the revolution of 1810 well worth the hour</t>
+          <t>la albondiga es un lugar lleno de historia lo mejor es que un historiador te vaya narrando lo ocurrido en este lugar es un museo el recorrido te lleva aproximadamente 1 hora es gratuito puedes ir con ninos</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>la verdad quedamos muy decepcionados de este lugar esta demasiado restaurado y parece nuevo no hay muchos guias que te puedan explicar algo de la historia de este lugar el contenido que ahi tienen es muy pobre acerca de la historia que ahi se vivio</t>
+          <t>the only thing i liked about here were the murals i think the entry price was too expensive it wasnt good enough for me</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>just seeing the inside of the alhondiga is worth the visit but there are many rooms with interesting different exhibits besides the war for independence there are pictures of after a flood and some votives and a couple of rooms with prehispanic artifacts we appreciated learning about the history</t>
+          <t>este lugar es un recordatorio para hechos historicos que como mexicanos sabemos desde la primaria pero con el tiempo olvidamos la forma en la que estan puestas las salas hace de la visita un resumen practico para recordar los acontecimientos mas importantes del pais recomendable ir con un guia</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>we went to the teatro for a cervantino performance it was great to see so many students of all ages there in addition to all the culture vultures acoustics are very good</t>
+          <t>es un recinto super elegante pero le falta mas informacion para conocer todos sus elementos o historia</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>very nice remodeling job we would recommend seeing this building around the area are interesting statues every night you can come and listen to people dressed in costumes and they sing and play</t>
+          <t>a beautiful building easily found for the greek mythological lifesize statues lining the rooftop it is a stunning and ornate building inside and out and worthy of a visit while in gto it sits at one corner of the jardin de la union where both visitors and locals gather the teatro juarez hosts symphonies movies dance opera and offers tours for a nominal fee and very worth every peso</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>este teatro es un icono de guanajuato esta en el centro de la ciudad cerca de todo en la noche es muy bonito ya iluminado</t>
+          <t>this theater is amazing visiting it is a must you can also look at schedules for on going shows a jewel of the porfiriato the theater holds 1200 people 30 pesos gets you in</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>me agrada que la construccion esta hecha a lo que es la ciudad colonial me parece de buen tamano aunque no me agrada las butacas me parecen un poco incomodas para los eventos de mas de una hora</t>
+          <t>de hecho en el interior del teatro es precioso y ha conservado todo su aspecto hermoso pero nada se destaca por un minimo de paneles explicativos de lo contrario el acceso esta limitado a una pequena parte de la sala de teatro de entrada y den y sala de estar en la primera planta para el resto sera mirar hacia otro lado o no sigue las instrucciones que algunos locales pague 35 pesos para la entrada mas 30 pesos cuadros a la derecha se me hace un poco caro para la calidad de la visita</t>
         </is>
       </c>
     </row>
@@ -1044,12 +1044,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>architecturally amazing inside and out really worth watching a concert there if you cant catch a concert its really worth the small entry fee to have a nose inside</t>
+          <t>este teatro es una vista obligada en la ciudad cuenta con una maravillosa arquitectura tanto exterior como interior este teatro forma parte importante de la historia de mexico pues tuvo un papel muy importante durante la revolucion mexicana de 1910 punto de gran importancia en la ciudad y cuenta con guias que te van narrando la historia del lugar y te permite conocer mas acerca de la cultura e historia de la ciudad y la nacion</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>hermoso edificio que vale la pena visitar por la vista desde el exterior despues honestamente pagar para visitar los salones vacios de un teatro no es algo que haya gustado</t>
+          <t>en el centro el teatro es lindo la noche esta en el centro de un agradable paseo yo estaba alli en diciembre y habia artistas de teatro en el periodo que aparecian</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>this is mexicos 3rd most beautiful theater only behind bellas artes in mexico city and degollado un guadalajara you can enter the theater limited hours so check online i personally like to see it at night but during the day is beautiful too</t>
+          <t>muy recomendable la visita al teatro es digno de ver puedes caminar entre los asientos y tomar buenas fotos</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>es un tipico lugar para pasear o estarse cuenta en sus alrededores con restaurantes agradables y tranquilos en los que cuales uno puede bien tomar alguna copa o comer bastante bien en algun dia de la semana la banda de viento del estado ameniza las tardes a veces tambien lo hacen los oriundos de la ciudad al bailar danzones acompnados de un grupo especialmente para ello y asi diversas actividades que bien se pueden lograr en el</t>
+          <t>como siempre limpio seguro fiestero es un lugar obligado felicidades a la policia turistica por un excelente trabajo de seguridad</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1102,12 +1102,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>es un punto obligatorio de visita en guanajuato ademas que muy buenos restaurantes cerca tienditas lugares para tomar fotos como el teatro y otros</t>
+          <t>this is the heart of guanajuato and where everyone goes to see and follow the mariachis and other street performances surrounded by restaurants and the theater</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>esta es una plaza muy peculiar ya que su diseno en triangulo esta forma la logran los arboles entrelasados entre si con un kiosko en medio tiene bancas en las que puedes sentarte a disfrutar de los antojitos que venden alrededor o simplemente escuchar la musica que emerge de los restaurantes aledanos</t>
+          <t>quieras o no llegaras aqui de aqui caminas por todo el centro de guanajuato me parece no relevante poner una opinion de este lugar pues es un punto de encuentro donde todo el bullicio de la ciudad se centra esta muy lindo bien arreglado mucha musica muy bien cuidado</t>
         </is>
       </c>
     </row>
@@ -1124,12 +1124,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>esta plazuela se ilumina y vibra con la tremenda energia de multiples artistas callejeros estatuas vivientes y trovadores particularmente estos ultimos son de mi especial agradodado que al entonar sus trovas llenan el lugar de un ambienten bohemio</t>
+          <t>es un lugar muy ruidoso ahi se concentran todas las personas los fines de semana para departir comer beber y pasear no es un lugar para llevar ninos pequenos por la noche</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>the trees surrounding the plaza are something to see the people watching is great and there are plenty of restaurants if needed</t>
+          <t>lo que lo hace diferente es que esta justo enfrente del teatro juarez y tiene muchos restaurantes pero es muy pequeno sin grandes detalles propios fuera de los arboles si vas al teatro o al pipila vale la pena darle un pequeno paseo pero si no lo viste no te pierdes de mucho</t>
         </is>
       </c>
     </row>
@@ -1146,12 +1146,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>sit beneath the squareshaped trees in one of many park benches and watch the world go by the best kept park square in gtos tourist zone across calle de sopena from the exquisite facade of teatro juarez</t>
+          <t>beautiful place surrounded by excellent bars and restaurants and right across the street from teatro juarez if you are eating outside however be expecting people to come up to you trying to sell songs or miscellaneous items nonetheless this is a must see</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>there are too many trees in this park none of which grow straight up they are all leaning one way or another fighting for space in the sunlight you cant see from one side to the other there are many metal benches available to sit on and a gazebo in the middle its a cool respite in the middle of the city but its not restful its a little pocket of trees</t>
+          <t>the jardin de la union is a place we all cross at a certain point close to the magnificent theatre of the town one always eventually see and sit around the jardin it is often crowded and the restaurants around it are more expensive than on other streets also expect to have lots of street musicians to play around you it was almost non stop when i went but hey you have to see that place it is a must even if it is not going to be a highlight of your visit to guanajuato</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>esta justo enfrente de la iglesia de san diego diagonal es el teatro toda la zona es bastante animada y el parque ofrece un muy buen ambiente de ocio incluso por la noche el parque sigue siendo bastante alegre restaurante proximo a tener un monton de mexico oyo la orquesta en las representaciones musica fuente del parque de iluminacion nocturna se han vuelto muy hermosa</t>
+          <t>love this area gorgeous nice to chill people watch el teatro juarez is nearby an amazing shop called rincon artesanal is down the street on avenida sopena which is always a must</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>its the same as the worlds biggest ball of twine and the blarney stone so close how could you not stop by so you can check it off your things to see list there is a step painted red between the two homes the callejon is very narrow between the homes lovers were able to kiss each leaning out from their balcony the red step is where x marks the spot they say its good luck to kiss there</t>
+          <t>solo no me gusto la fila de gente para ingresar pero me parecio logico por la fecha valio la pena muy buena onda la gente que te toma tu fotografia se vive un ambiente magico</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1208,12 +1208,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>si eres de esos enamorados no puedes dejar de conocer este lugar y formar parte de la tradicion del beso</t>
+          <t>ok so its become a total tourist trap but you can now climb onto one of the balconies and exit through a gift shop its crowded with just about every person wanting a photo but it doesnt take long to have your turn we walked all the way up the steps where you are back in a totally authentic neighborhood</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>its a quaint turn in the alleyway where two teenagers allegedly shared a forbidden kiss between balconies thats it however one step is painted red where you get your photo taken kissing that special someone a nice to do not a must do</t>
+          <t>a little hard to find on the right of the santa cartrina dulceria and up the street then turn to your left a tourist spot with a romeo juliet story behind it eventually the young lover did commit suicide we were told plenty of locals around to take your picture on the red step and share the history theres a photographer there to if you dont have your camera the locals loved telling us the way the gringos kiss is not as passionate as the mexicansvivo mexico</t>
         </is>
       </c>
     </row>
@@ -1230,12 +1230,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>reza la leyenda que una pareja se enamoraba en los balcones de ese callejon punto turistico por la historia y no por el lugar en si porque es un lugar como tanto otros de gto claro que unico tambien camino hacia el pipela una de las increibles postales gto compensa dar una ronda en las tiendas de artesanias y dulces mexicanos cerca cafes cada pareja que toma la foto besando alli si u esta sola arrruma un amigo o un amigo para tomar una foto y conocer la leyenda de este callejon del beso</t>
+          <t>cuenta la leyenda que quien se de un beso en el tercer escalon tendra mucha suerte en su vida por lo que uno debe visitar si va a guanajuato es un callejon muy visitado y en donde terminan la estudiantinas</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>es un lugar obligado cuando visites guanajuato puedes acudir ahi para que te cuenten la historia de este callejon al llegar a los alrededores hay muchos ninos que te ofrecen contar la historia y al pasar por el callejon hay muchas personas y locales donde venden muchas cosas no tienen la mejor presentacion pero al lugar vale la pena pedir a alguien que te tome la foto</t>
+          <t>there is nothing special about the callejon del beso it is simply a small callejon with an interesting legend it can take a while to find it if you dont go with a guide but its worth the walk at least to say you have been there and to listen to the dramatic legend involving the callejon del beso there is also a small souvenir shop there where you can find cute things at a very good price</t>
         </is>
       </c>
     </row>
@@ -1252,12 +1252,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>lindo lugar tipico de guanajuato hay un chico que actua con la tuna valenciana que cuenta de forma muy agradable la historia del callejon esto lo apreciamos en una callejoneada</t>
+          <t>lugar unico al caer la noche y con las callejoneadas es imposible pasar por ahi asi que recomiendo visitar en las tardes o manana</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>uno no se imagina visitar guanajuato en pareja sin darse una vuelta por el callejon del beso lamentablemente el gobierno no le ha dado el cuidado que necesita un punto turistico tan importante las casas aledanas y el mismo callejon estan pintarrajeadas no hay control en el comercio ambulante y la zona huele feo</t>
+          <t>guanajuato tiene muchos callejones llenos de historias interesantes aparte de este vayan pero no es nada muy interesante que digamos</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>los guias que estan alla de lo mas simpatico te cuentan anecdotas que te meas de la risa te venden de todo alla</t>
+          <t>this can become a tourist trap as everyone wants a picture kissing their sweetheart you can find a path around it and instead of going up go down if you want to go up youll have to wait in line while everyone is taking pictures</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>no cuesta nada ir esta cerca del centro y es un lindo lugar para tomar unas fotografias de recuerdo indispensable</t>
+          <t>so perhaps the most and certainly among the most touristy drop by places in this lovely city free photo op from the street or pay a small charge to get a photo with your significant other from the terracebalcony window</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>good place to see the whole city dont bother with the museum by the lift</t>
+          <t>el monumento en si es bastante insulso sin embargo el teleferico y la vista lo valen recomiendo contratar a un nino que les explieque la ciudad con un texto aprendido y mus simpatico recomendable bajar a pie entre los callejos esta muy bien senalado y es seguro y muestra rincones de guanajuato</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -1314,12 +1314,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>el monumento de por si es bonito pero la vista que se tiene de la cuidad desde ahi es impresionante</t>
+          <t>admira la belleza de la ciudad de guanajuato desde este punto del pipila puedes llegar por el teleferico que esta atras de teatro juarez o por vehiculo por la panoramica excelente lugar</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>al mirador suben mucha gente junta cobran 12 pesos por persona entonces entre mas gente mejor y las escaleras estan muy angostas cuando se juntan los que suben y bajan es muy dificil avanzar</t>
+          <t>es un lugar historico que debes conocer si visitas guanajuato no dejes de comer guacamayas cuando estes ahi</t>
         </is>
       </c>
     </row>
@@ -1336,12 +1336,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>we stopped here on our tour and enjoyed picture taking from high above the city we could see our balcony room at the hotel suites 1850 facing the triangular jardin de la union below it reminded me of being in florence italy and looking town on the city from high above from the piazzale michelangelo</t>
+          <t>estaba a pocos pasos del hotel donde me aloje asi que lo visite muchas veces la estatua no es particularmente impresionante pero la vista desde el observatorio aqui es una vista magnifica guanajuato y uno de los mejores lugares para hacer turismo en mexico la mejor recomendacion es que el dia cae antes de que se ponga el sol hasta que el paisaje nocturno sea el mejor</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>the monument al pipila visited a while backit is just a short rom the basilica did not now anything about him</t>
+          <t>bonito monumento buena explicacion museo cierra a las 6 pm creo que es temprano falta vigilancia de la policia buen acceso a traves de transporte publico</t>
         </is>
       </c>
     </row>
@@ -1358,12 +1358,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>como el monumento al pipila esta en una montana desde alli hay una vista panoramica de la muy pintoresca ciudad caracterizada por el gran colorido de sus edificaciones y su irregular trazado por los callejones</t>
+          <t>its the first time we visited pipila at night time and the night view was stunning i did not have a tripod and could not capture the gorgeous view it was very windy that night so bringing a warm jacket with you might not be a bad idea i highly recommend you to go to pipila at night time</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>el monumento y la vista estan increibles pero no tiene mucho que ver o que hacer muchos puestos ambulantes a un costado del pipila al ser el personaje que es se merece algo mejor un poco sucio y descuidado</t>
+          <t>es un paseo rapido con una linda vista de guanajuato desde el fonicular y desde el monumento vale la pena solo por la vista</t>
         </is>
       </c>
     </row>
@@ -1380,12 +1380,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>super economico rapido y el personal es muy amable es una excelente actividad que tienes que realizar si visitas guanajuato</t>
+          <t>da una hermosa vista esta muy bonito el lugar ya que puedes comprar muchas cosas aparte su vista es impresionante</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>esta aburrido ir es algo que puedes ahorrarte esta bonita la vista panoramica de la ciudad pero en si el monumento esta aburrido</t>
+          <t>en la cima de la montana detras del teatro juarez se encuentra el gigantesco monumento pipila erigido en honor a un hombre llamado martinez un heroe de la guerra de independencia el monumento como tal es de hecho bastante representativo del arte mexicano por su sobriedad y lineas sobrias es enorme y puedes verlo por toda la ciudad cuando miras en su direccion nuestro interes es limitado por otro lado la explanada panoramica nos permite apreciar toda la ciudad y el centro historico</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>i do not think it is worth the ride to see people that have been dead for 30100 years</t>
+          <t>no son momias sino personas muertas y exhumadas que por el particular clima seco de la zona se quedan asi se visita mas por curiosidad pero no me parece nada de interesante</t>
         </is>
       </c>
     </row>
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>this is one of those places youll never forget i found it especially fascinating when facts about the mummies especially cause of death were added the displays were in good taste and mirror the cultures relationship with death which is celebrated with festivals every dia de los muertos rather than have children ask for treats their halloween is a happy often boisterous remembrance of ancestors and an invitation to them to return to celebrate with altars and special foods</t>
+          <t>it is a creepy place for sure but what do you spect if you are going to the mommies museum hello if you dont feel like you want to see real mommies of all kind from little kids to old people and people that drowned or was killed not the best place for little kids thought</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>no es un museo historico los cuerpos que se exhiben no estan contextualizados en su epoca o en su relevancia social su unica cualidad es que se momificaron por las condiciones propias del terreno donde fueron sepultados para quien le guste el morbo lo visite en mi infancia hace mas de 40 anos la aclaracion por la fecha de abajo</t>
+          <t>a mi en lo personal eso de ver gente muerta no me hizo mucha ilusion pero reconozco que la historia sobre las momificaciones naturales me llamo la atencion</t>
         </is>
       </c>
     </row>
@@ -1446,12 +1446,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>me gusto mucho el museo de las momias de guanajuato de hecho son muy famosas en mexico por lo que no me las podia perder te encuentras con cuerpos realmente muy bien conservadas si eres un poco sensible a lo mejor no es para ti</t>
+          <t>buen lugar las momias son unicas y no le piden nada a ninguna otra del mundo el personal es muy amable y recuerden dejar propina porque los trabajadores no tienen un salario</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>parte de la historia de la ciudad y un gran atractivo de guanajuato pero falta mantenimiento al museo limpieza y sobretodo seguridad del turista debe de controlar la poblacion de guia de turistas piratas que estan en la zona son pesima imagen y pesimo servicio si viajo a un destino lo que menos quiero es que un pseudo guia alcoholico y drogado se drogan a plena luz del dia se acerque para ofertar sus deplorables servicios</t>
+          <t>es un poco fuerte hay mas de 100 momias del cementerio de la zona y es impresionante si bien el museo esta muy bien organizado y tiene explicaciones claras nos fue un poco fuerte y quisimos salir rapido no recomiendo ir con ninos o gente impresionable</t>
         </is>
       </c>
     </row>
@@ -1468,12 +1468,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>no puedes decir que fuiste a guanajuato si no visitaste el museo de las momias el museo tiene piezas muy interesantes con una buena explicacion y en excelentes condiciones aunque el museo no es muy grande vale la pena visitarlo</t>
+          <t>para nosotros formo parte de un recorrido por varios atractivos de la ciudad y sin duda es un lugar que debes conocer el recorrido por el museo es corto pero interesante y parte de la historia de este hermoso guanajuato</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>el lugar es pequeno caluroso y con falta de informacion debido a los vidrios en ocasiones no se ven bien las momias por el brillo o refecciones de la luz son pocas las momias y la descripcion es poca o nula y en ocasiones es muy pequena y mal ubicada</t>
+          <t>creo que ninos pequenos podrian impresionarse para jovenes y adultos esta bien el guia que nos toco era claro y respetuoso</t>
         </is>
       </c>
     </row>
@@ -1490,12 +1490,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>world famous mommies in perfect condition due to the dry weather and minerals in the soil a must place to seevery cheap entrance fee</t>
+          <t>algo unico que hay que conocer se necesita mejorar el sonido del video de apertura pero por lo demas el paseo por el museo es muy interesante</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>personalmente no me gustan estos museos donde se exiben los bebes muertos etc es un atractivo para la gente que le guste pero la verdad yo no lo recomendaria</t>
+          <t>mucha fila pero vale la pena ir la verdad es que la ciudad amerita esa visita ir a guanajuato y no conocer el museo es no ir</t>
         </is>
       </c>
     </row>
